--- a/Data_research_methodology_2023.xlsx
+++ b/Data_research_methodology_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
   <si>
     <t>Timestamp</t>
   </si>
@@ -254,6 +254,102 @@
   </si>
   <si>
     <t>Firdaus Yusuf Bahtiar</t>
+  </si>
+  <si>
+    <t>Wahyu Eko Prasetyo Akbar</t>
+  </si>
+  <si>
+    <t>Non-regular (PLN)</t>
+  </si>
+  <si>
+    <t>Pradana Jayawardana</t>
+  </si>
+  <si>
+    <t>DIAN AKBAR KARISMASANI</t>
+  </si>
+  <si>
+    <t>Baradiant Ivano Leotman</t>
+  </si>
+  <si>
+    <t>ramadani putra</t>
+  </si>
+  <si>
+    <t>Rizky Andri Nurachman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Situmorang </t>
+  </si>
+  <si>
+    <t>32 WPM (150 CPM)</t>
+  </si>
+  <si>
+    <t>M. RAMADHAN SAPUTRA</t>
+  </si>
+  <si>
+    <t>riza afandi</t>
+  </si>
+  <si>
+    <t>Ni Luh Putu Andrea Maurilla Sarasvanya</t>
+  </si>
+  <si>
+    <t>Meidiono Untoro</t>
+  </si>
+  <si>
+    <t>RIDO PAHOTAN TUA MANIK</t>
+  </si>
+  <si>
+    <t>Muhammad Siddiq B</t>
+  </si>
+  <si>
+    <t>Tiyas Sinta Rahmania</t>
+  </si>
+  <si>
+    <t>Surya Pratama</t>
+  </si>
+  <si>
+    <t>Muhammad Reza Fadhila</t>
+  </si>
+  <si>
+    <t>Azkaa Satria</t>
+  </si>
+  <si>
+    <t>Harits Satriaksa</t>
+  </si>
+  <si>
+    <t>Henggar Agung Wirawan</t>
+  </si>
+  <si>
+    <t>M Abdurachman Alfatih</t>
+  </si>
+  <si>
+    <t>33 WPM (141CPM)</t>
+  </si>
+  <si>
+    <t>Gilang Cahyo Nugroho</t>
+  </si>
+  <si>
+    <t>Mokhamad Irfan</t>
+  </si>
+  <si>
+    <t>"185"</t>
+  </si>
+  <si>
+    <t>Wisnu Sri Nugroho</t>
+  </si>
+  <si>
+    <t>Dwaldes Bernad</t>
+  </si>
+  <si>
+    <t>CHITRA PHRISTIAWAN AJI BHUWANA</t>
+  </si>
+  <si>
+    <t>Adhesty Darmayanti Ratulasmar</t>
+  </si>
+  <si>
+    <t>Syamsurya Catur Aprian</t>
+  </si>
+  <si>
+    <t>Dian Priyatno</t>
   </si>
 </sst>
 </file>
@@ -1983,6 +2079,606 @@
         <v>57.0</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>45222.35347267361</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2.312301E7</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>45222.35351905093</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1.3120132E7</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="3">
+        <v>165.0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>45222.362550439815</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2.3123043E7</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="3">
+        <v>172.0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>45222.371023125</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2.3123025E7</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="3">
+        <v>177.0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>45222.371432175925</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2.3123031E7</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="3">
+        <v>174.0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>45222.38621003472</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2.3123032E7</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="3">
+        <v>175.0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>45222.39446164352</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2.3123016E7</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>45222.415436655094</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2.312302E7</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="3">
+        <v>172.0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>45222.432648807866</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2.3123034E7</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="3">
+        <v>165.0</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>45222.44384939814</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2.3123038E7</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="3">
+        <v>178.0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>45222.454839872684</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2.0023009E7</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="3">
+        <v>171.0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>45222.47543734954</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2.3123027E7</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="3">
+        <v>155.0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45222.47562165509</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2.3123049E7</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45222.477326249995</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2.3123022E7</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="3">
+        <v>166.0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>45222.55868618056</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2.3123021E7</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>45222.59568787037</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2.3123026E7</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="3">
+        <v>153.0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>45222.602939652774</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2.3123017E7</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="3">
+        <v>178.0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>45222.607119988425</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2.3123041E7</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="3">
+        <v>173.0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>45222.627195231486</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2.312304E7</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" s="3">
+        <v>171.0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45222.68596700231</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="3">
+        <v>2.3123035E7</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="3">
+        <v>174.0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>273.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45222.68635070602</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2.3123024E7</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E94" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45222.68732729167</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="3">
+        <v>2.3123023E7</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E95" s="3">
+        <v>168.0</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45222.689265567125</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2.312303E7</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45222.69018539352</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2.3123037E7</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="3">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45222.694287962964</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="3">
+        <v>2.3123014E7</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" s="3">
+        <v>169.0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45222.698357905094</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2.3123029E7</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="3">
+        <v>168.0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45222.708710439816</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2.3123033E7</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" s="3">
+        <v>173.0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45222.72075579861</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="3">
+        <v>2.3123018E7</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="3">
+        <v>155.0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45222.74390423611</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="3">
+        <v>2.3123019E7</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102" s="3">
+        <v>176.0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45222.748589780094</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2.3123036E7</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="3">
+        <v>171.0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>32.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
